--- a/www/terminologies/ASS-X01-TranscoSavFaireADELI-SavFaireR01.xlsx
+++ b/www/terminologies/ASS-X01-TranscoSavFaireADELI-SavFaireR01.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-02T10:50:09+00:00</t>
+    <t>2025-06-08T18:16:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ASS-X01-TranscoSavFaireADELI-SavFaireR01.xlsx
+++ b/www/terminologies/ASS-X01-TranscoSavFaireADELI-SavFaireR01.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-08T18:16:56+00:00</t>
+    <t>2025-07-02T12:47:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ASS-X01-TranscoSavFaireADELI-SavFaireR01.xlsx
+++ b/www/terminologies/ASS-X01-TranscoSavFaireADELI-SavFaireR01.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-02T12:47:09+00:00</t>
+    <t>2025-07-30T08:19:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ASS-X01-TranscoSavFaireADELI-SavFaireR01.xlsx
+++ b/www/terminologies/ASS-X01-TranscoSavFaireADELI-SavFaireR01.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:19:15+00:00</t>
+    <t>2025-10-02T12:01:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ASS-X01-TranscoSavFaireADELI-SavFaireR01.xlsx
+++ b/www/terminologies/ASS-X01-TranscoSavFaireADELI-SavFaireR01.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:01:06+00:00</t>
+    <t>2025-11-03T13:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ASS-X01-TranscoSavFaireADELI-SavFaireR01.xlsx
+++ b/www/terminologies/ASS-X01-TranscoSavFaireADELI-SavFaireR01.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:53:01+00:00</t>
+    <t>2025-12-19T16:18:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
